--- a/vecdb/create_vec/project-0129.xlsx
+++ b/vecdb/create_vec/project-0129.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13644"/>
+    <workbookView windowWidth="27948" windowHeight="12575"/>
   </bookViews>
   <sheets>
     <sheet name="project-0129" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="218">
   <si>
     <t>workspace_id</t>
   </si>
@@ -47,7 +47,7 @@
     <t>url</t>
   </si>
   <si>
-    <t>管理员</t>
+    <t>admin</t>
   </si>
   <si>
     <t>深信服</t>
@@ -577,6 +577,426 @@
   </si>
   <si>
     <t>李林</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>贵州能源（盘江）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>胡旭高</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>海马财务</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>李学强</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>湖南高速</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>华菱财务</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>百联财务</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>丁赞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>青建财务</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中国有色 - 财司</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>九州通</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>平煤财务</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>周磊</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>浙能财务</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>河南能源 - 财司</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万向财务</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>江西交投</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>悦达财务</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>浙交投财务</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>凤凰出版</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>甘电投</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>伊泰财务</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>包钢财务</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>传化财务</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一重财务</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>杭州锦江</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>金川财务</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>亿利财务</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>张峰磊</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新华联财务</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>三环财务</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中旅财务</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>天津港财务</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>正泰财务</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -589,10 +1009,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -742,12 +1169,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8CDDFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1062,55 +1495,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1125,74 +1555,77 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1201,6 +1634,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1735,14 +2180,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
+    <col min="2" max="2" width="19.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="10.7777777777778"/>
     <col min="7" max="7" width="60.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3103,6 +3550,499 @@
         <v>182</v>
       </c>
     </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="3">
+        <v>50320458</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D60" s="1">
+        <v>45385</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="3">
+        <v>51138549</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D61" s="1">
+        <v>45385</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="3">
+        <v>53388806</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D62" s="1">
+        <v>45385</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="3">
+        <v>65368871</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D63" s="1">
+        <v>45385</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="3">
+        <v>57140048</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64" s="1">
+        <v>45385</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="5">
+        <v>51597021</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D65" s="1">
+        <v>45385</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="3">
+        <v>51928172</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D66" s="1">
+        <v>45385</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="3">
+        <v>41840629</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D67" s="1">
+        <v>45385</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="3">
+        <v>48434184</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D68" s="1">
+        <v>45385</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="3">
+        <v>55461800</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D69" s="1">
+        <v>45385</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="3">
+        <v>46598489</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D70" s="1">
+        <v>45385</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="3">
+        <v>61714611</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D71" s="1">
+        <v>45385</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="3">
+        <v>47144913</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D72" s="1">
+        <v>45385</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="3">
+        <v>63848741</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D73" s="1">
+        <v>45385</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="3">
+        <v>44953172</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D74" s="1">
+        <v>45385</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="3">
+        <v>37911126</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D75" s="1">
+        <v>45385</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="3">
+        <v>68068926</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D76" s="1">
+        <v>45385</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="3">
+        <v>43115760</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D77" s="1">
+        <v>45385</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="3">
+        <v>34923393</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D78" s="1">
+        <v>45385</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="3">
+        <v>59497284</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D79" s="1">
+        <v>45385</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="3">
+        <v>32734345</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D80" s="1">
+        <v>45385</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="3">
+        <v>51575420</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D81" s="1">
+        <v>45385</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="3">
+        <v>65163664</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D82" s="1">
+        <v>45385</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="3">
+        <v>39394787</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D83" s="1">
+        <v>45385</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="3">
+        <v>51036137</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D84" s="1">
+        <v>45385</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="3">
+        <v>69695558</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D85" s="1">
+        <v>45385</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="3">
+        <v>45901771</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D86" s="1">
+        <v>45385</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="3">
+        <v>54056731</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D87" s="1">
+        <v>45385</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="3">
+        <v>64337295</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D88" s="1">
+        <v>45385</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
